--- a/planilhas/Perfis.xlsx
+++ b/planilhas/Perfis.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -470,7 +470,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Contabil da SIa</t>
+          <t>Contabil da SIA</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAVA</t>
+          <t>SIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Admin da SAVA</t>
+          <t>Administrativo do SAVA</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Admin da SIA</t>
+          <t>Rh da Sia</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Admin </t>
+          <t>RH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GENERAL</t>
+          <t>SAVA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Admin do General</t>
+          <t>Rh da SAVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SIA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rh do GENERAL</t>
         </is>
       </c>
     </row>

--- a/planilhas/Perfis.xlsx
+++ b/planilhas/Perfis.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RH</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -530,47 +530,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rh da Sia</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RH</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SAVA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Rh da SAVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RH</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SIA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Rh do GENERAL</t>
+          <t>Esse é o sistema financeiro da SIA</t>
         </is>
       </c>
     </row>
